--- a/data/Classess_2023_biotech.xlsx
+++ b/data/Classess_2023_biotech.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$13</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Family</t>
   </si>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>st108932@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Бехер</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Эдуардовна</t>
+  </si>
+  <si>
+    <t>st090455</t>
+  </si>
+  <si>
+    <t>st090455@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -202,8 +217,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -229,6 +244,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -236,69 +282,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -312,6 +328,29 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -320,30 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -352,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -367,25 +382,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,73 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,79 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,17 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +651,26 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -660,35 +691,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,68 +725,59 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -782,6 +797,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1110,12 +1128,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1389,8 +1407,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
+  <autoFilter ref="A1:F13">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:F113">
@@ -1399,6 +1434,7 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="st109119@student.spbu.ru"/>
     <hyperlink ref="E3" r:id="rId2" display="st109105@student.spbu.ru"/>
+    <hyperlink ref="E14" r:id="rId3" display="st090455@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait" errors="blank" horizontalDpi="600" verticalDpi="600"/>
